--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -918,7 +918,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-group)
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-group|https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-policy-holder-organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7962" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7962" uniqueCount="910">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1047,10 +1047,14 @@
     <t>Contract.authority</t>
   </si>
   <si>
-    <t>Authority under which this Contract has standing</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people, principals, organizations, or jurisdictions formed for the purpose of achieving some form of collective action such as the promulgation, administration and enforcement of contracts and policies.</t>
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-insurance-organization)
+</t>
+  </si>
+  <si>
+    <t>Insurance Instance</t>
+  </si>
+  <si>
+    <t>Reference to the Insurance Instance.</t>
   </si>
   <si>
     <t>The governance framework responsible for ensuring compliance with or enforcement of the contract or policy.</t>
@@ -9842,7 +9846,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -9854,17 +9858,17 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -9931,7 +9935,7 @@
         <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -9939,11 +9943,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9962,17 +9966,17 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
@@ -10021,7 +10025,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -10039,7 +10043,7 @@
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
@@ -10047,7 +10051,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10070,13 +10074,13 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10127,7 +10131,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -10153,7 +10157,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10179,16 +10183,16 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -10237,7 +10241,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -10263,7 +10267,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10289,10 +10293,10 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10343,7 +10347,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -10369,7 +10373,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10395,10 +10399,10 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10449,7 +10453,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -10475,7 +10479,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10501,10 +10505,10 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10555,7 +10559,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -10581,7 +10585,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10604,13 +10608,13 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10661,7 +10665,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -10687,7 +10691,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10713,10 +10717,10 @@
         <v>170</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10747,7 +10751,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>73</v>
@@ -10765,7 +10769,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -10791,7 +10795,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10814,17 +10818,17 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -10873,7 +10877,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10899,7 +10903,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10925,10 +10929,10 @@
         <v>170</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10958,10 +10962,10 @@
         <v>299</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>73</v>
@@ -10979,7 +10983,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10994,10 +10998,10 @@
         <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>303</v>
@@ -11005,7 +11009,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11031,10 +11035,10 @@
         <v>170</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -11064,10 +11068,10 @@
         <v>299</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>73</v>
@@ -11085,7 +11089,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -11103,7 +11107,7 @@
         <v>73</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>303</v>
@@ -11111,7 +11115,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11134,13 +11138,13 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11191,7 +11195,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -11217,7 +11221,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11323,7 +11327,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11431,11 +11435,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11457,10 +11461,10 @@
         <v>128</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>131</v>
@@ -11515,7 +11519,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -11541,7 +11545,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11567,10 +11571,10 @@
         <v>170</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11600,10 +11604,10 @@
         <v>299</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>73</v>
@@ -11621,7 +11625,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>82</v>
@@ -11647,7 +11651,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11673,10 +11677,10 @@
         <v>170</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11706,10 +11710,10 @@
         <v>299</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>73</v>
@@ -11727,7 +11731,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -11753,7 +11757,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11776,13 +11780,13 @@
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11833,7 +11837,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11859,7 +11863,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11885,10 +11889,10 @@
         <v>305</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11939,7 +11943,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11965,7 +11969,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11991,10 +11995,10 @@
         <v>102</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -12024,10 +12028,10 @@
         <v>164</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>73</v>
@@ -12045,7 +12049,7 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>82</v>
@@ -12071,7 +12075,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12094,13 +12098,13 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12151,7 +12155,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -12177,7 +12181,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12200,13 +12204,13 @@
         <v>73</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12257,7 +12261,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -12275,7 +12279,7 @@
         <v>73</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>303</v>
@@ -12283,7 +12287,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12389,7 +12393,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12497,11 +12501,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12523,10 +12527,10 @@
         <v>128</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>131</v>
@@ -12581,7 +12585,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -12607,7 +12611,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12633,10 +12637,10 @@
         <v>140</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12687,7 +12691,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -12705,7 +12709,7 @@
         <v>146</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>73</v>
@@ -12713,7 +12717,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12739,10 +12743,10 @@
         <v>305</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12793,7 +12797,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -12811,15 +12815,15 @@
         <v>309</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12845,10 +12849,10 @@
         <v>248</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12899,7 +12903,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -12917,15 +12921,15 @@
         <v>315</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12948,13 +12952,13 @@
         <v>73</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -13005,7 +13009,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -13031,7 +13035,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13057,10 +13061,10 @@
         <v>170</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13090,10 +13094,10 @@
         <v>299</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -13111,7 +13115,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -13126,10 +13130,10 @@
         <v>94</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>303</v>
@@ -13137,7 +13141,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13163,10 +13167,10 @@
         <v>170</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13196,10 +13200,10 @@
         <v>299</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>73</v>
@@ -13217,7 +13221,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -13235,7 +13239,7 @@
         <v>73</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>303</v>
@@ -13243,7 +13247,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13269,10 +13273,10 @@
         <v>84</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13323,7 +13327,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -13349,7 +13353,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13372,17 +13376,17 @@
         <v>73</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -13431,7 +13435,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -13457,7 +13461,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13563,7 +13567,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13671,11 +13675,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13697,10 +13701,10 @@
         <v>128</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>131</v>
@@ -13755,7 +13759,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -13781,7 +13785,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13804,13 +13808,13 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13861,7 +13865,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13887,7 +13891,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13913,10 +13917,10 @@
         <v>182</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13946,10 +13950,10 @@
         <v>299</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>73</v>
@@ -13967,7 +13971,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>82</v>
@@ -13993,7 +13997,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14019,10 +14023,10 @@
         <v>182</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -14052,10 +14056,10 @@
         <v>299</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>73</v>
@@ -14073,7 +14077,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -14099,7 +14103,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14125,10 +14129,10 @@
         <v>182</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14158,10 +14162,10 @@
         <v>299</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -14179,7 +14183,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -14205,7 +14209,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14228,13 +14232,13 @@
         <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14285,7 +14289,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>82</v>
@@ -14303,7 +14307,7 @@
         <v>73</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>73</v>
@@ -14311,7 +14315,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14417,7 +14421,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14525,11 +14529,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14551,10 +14555,10 @@
         <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>131</v>
@@ -14609,7 +14613,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -14635,7 +14639,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14661,10 +14665,10 @@
         <v>140</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14715,7 +14719,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -14741,7 +14745,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14764,13 +14768,13 @@
         <v>73</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14821,7 +14825,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -14847,7 +14851,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14953,7 +14957,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15061,11 +15065,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15087,10 +15091,10 @@
         <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>131</v>
@@ -15145,7 +15149,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -15171,7 +15175,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15194,13 +15198,13 @@
         <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15251,7 +15255,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>82</v>
@@ -15277,7 +15281,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15303,10 +15307,10 @@
         <v>170</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15318,7 +15322,7 @@
         <v>73</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>73</v>
@@ -15336,10 +15340,10 @@
         <v>299</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>73</v>
@@ -15357,7 +15361,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>82</v>
@@ -15383,7 +15387,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15406,19 +15410,19 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -15467,7 +15471,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -15482,10 +15486,10 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>73</v>
@@ -15493,7 +15497,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15519,10 +15523,10 @@
         <v>170</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15552,10 +15556,10 @@
         <v>299</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -15573,7 +15577,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -15591,7 +15595,7 @@
         <v>73</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>303</v>
@@ -15599,7 +15603,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15625,14 +15629,14 @@
         <v>170</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -15660,10 +15664,10 @@
         <v>175</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -15681,7 +15685,7 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
@@ -15699,7 +15703,7 @@
         <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>303</v>
@@ -15707,7 +15711,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15733,10 +15737,10 @@
         <v>170</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15766,10 +15770,10 @@
         <v>299</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>73</v>
@@ -15787,7 +15791,7 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -15813,7 +15817,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15836,13 +15840,13 @@
         <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15893,7 +15897,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -15919,7 +15923,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16025,7 +16029,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16133,11 +16137,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16159,10 +16163,10 @@
         <v>128</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>131</v>
@@ -16217,7 +16221,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -16243,7 +16247,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16266,13 +16270,13 @@
         <v>73</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16323,7 +16327,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>82</v>
@@ -16349,7 +16353,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16375,10 +16379,10 @@
         <v>84</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16429,7 +16433,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -16447,7 +16451,7 @@
         <v>73</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>73</v>
@@ -16455,7 +16459,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16481,10 +16485,10 @@
         <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16535,7 +16539,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -16553,7 +16557,7 @@
         <v>73</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>73</v>
@@ -16561,7 +16565,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16584,13 +16588,13 @@
         <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16641,7 +16645,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -16667,7 +16671,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16690,13 +16694,13 @@
         <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16747,7 +16751,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -16765,7 +16769,7 @@
         <v>73</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>73</v>
@@ -16773,7 +16777,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16879,7 +16883,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16905,10 +16909,10 @@
         <v>128</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16983,10 +16987,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>73</v>
@@ -17008,13 +17012,13 @@
         <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17074,7 +17078,7 @@
         <v>75</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>133</v>
@@ -17091,11 +17095,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17117,10 +17121,10 @@
         <v>128</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>131</v>
@@ -17175,7 +17179,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -17201,7 +17205,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17227,10 +17231,10 @@
         <v>170</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17260,10 +17264,10 @@
         <v>299</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>73</v>
@@ -17281,7 +17285,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -17307,7 +17311,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17333,10 +17337,10 @@
         <v>170</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17366,10 +17370,10 @@
         <v>299</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -17387,7 +17391,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -17413,7 +17417,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17436,13 +17440,13 @@
         <v>73</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17493,7 +17497,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -17519,7 +17523,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17545,10 +17549,10 @@
         <v>170</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17578,10 +17582,10 @@
         <v>299</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>73</v>
@@ -17599,7 +17603,7 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -17625,7 +17629,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17651,10 +17655,10 @@
         <v>182</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17684,10 +17688,10 @@
         <v>175</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>73</v>
@@ -17705,7 +17709,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -17723,7 +17727,7 @@
         <v>73</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>73</v>
@@ -17731,7 +17735,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17754,13 +17758,13 @@
         <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -17811,7 +17815,7 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -17837,7 +17841,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17943,7 +17947,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18051,11 +18055,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18077,10 +18081,10 @@
         <v>128</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>131</v>
@@ -18135,7 +18139,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -18161,7 +18165,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18184,13 +18188,13 @@
         <v>73</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18241,7 +18245,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -18267,7 +18271,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18293,10 +18297,10 @@
         <v>170</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18326,10 +18330,10 @@
         <v>299</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>73</v>
@@ -18347,7 +18351,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -18373,7 +18377,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18399,10 +18403,10 @@
         <v>84</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18453,7 +18457,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -18479,7 +18483,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18505,10 +18509,10 @@
         <v>84</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -18559,7 +18563,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -18585,7 +18589,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18611,10 +18615,10 @@
         <v>170</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18644,10 +18648,10 @@
         <v>299</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>73</v>
@@ -18665,7 +18669,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -18683,7 +18687,7 @@
         <v>73</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>73</v>
@@ -18691,7 +18695,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18717,10 +18721,10 @@
         <v>248</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18771,7 +18775,7 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -18789,7 +18793,7 @@
         <v>73</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>73</v>
@@ -18797,7 +18801,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18903,7 +18907,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19011,7 +19015,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19037,13 +19041,13 @@
         <v>305</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19093,7 +19097,7 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -19102,7 +19106,7 @@
         <v>82</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>94</v>
@@ -19111,7 +19115,7 @@
         <v>73</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>73</v>
@@ -19119,7 +19123,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19145,20 +19149,20 @@
         <v>305</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P149" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>73</v>
@@ -19203,7 +19207,7 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -19212,7 +19216,7 @@
         <v>82</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>94</v>
@@ -19221,7 +19225,7 @@
         <v>73</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>73</v>
@@ -19229,7 +19233,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19255,10 +19259,10 @@
         <v>248</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19309,7 +19313,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -19327,7 +19331,7 @@
         <v>73</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>73</v>
@@ -19335,7 +19339,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19441,7 +19445,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19549,7 +19553,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19575,13 +19579,13 @@
         <v>305</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19631,7 +19635,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -19640,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>94</v>
@@ -19649,7 +19653,7 @@
         <v>73</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>73</v>
@@ -19657,7 +19661,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19683,20 +19687,20 @@
         <v>305</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P154" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>73</v>
@@ -19741,7 +19745,7 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -19750,7 +19754,7 @@
         <v>82</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>94</v>
@@ -19759,7 +19763,7 @@
         <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>73</v>
@@ -19767,7 +19771,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19793,10 +19797,10 @@
         <v>84</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19847,7 +19851,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -19873,7 +19877,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19899,10 +19903,10 @@
         <v>84</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19953,7 +19957,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19979,7 +19983,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20005,10 +20009,10 @@
         <v>73</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20059,7 +20063,7 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -20085,7 +20089,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20108,13 +20112,13 @@
         <v>73</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -20165,7 +20169,7 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -20191,7 +20195,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20214,13 +20218,13 @@
         <v>73</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -20271,7 +20275,7 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -20289,7 +20293,7 @@
         <v>73</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>73</v>
@@ -20297,7 +20301,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20403,7 +20407,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20511,11 +20515,11 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20537,10 +20541,10 @@
         <v>128</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>131</v>
@@ -20595,7 +20599,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -20621,7 +20625,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20644,13 +20648,13 @@
         <v>73</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -20701,7 +20705,7 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -20719,7 +20723,7 @@
         <v>73</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>303</v>
@@ -20727,7 +20731,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20753,10 +20757,10 @@
         <v>140</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -20807,7 +20811,7 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
@@ -20825,7 +20829,7 @@
         <v>73</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>73</v>
@@ -20833,7 +20837,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20859,10 +20863,10 @@
         <v>305</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -20913,7 +20917,7 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -20931,15 +20935,15 @@
         <v>73</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20962,13 +20966,13 @@
         <v>73</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21019,7 +21023,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -21037,7 +21041,7 @@
         <v>73</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>303</v>
@@ -21045,7 +21049,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21068,13 +21072,13 @@
         <v>73</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21125,7 +21129,7 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -21143,7 +21147,7 @@
         <v>73</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>303</v>
@@ -21151,7 +21155,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21174,13 +21178,13 @@
         <v>73</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -21231,7 +21235,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -21249,7 +21253,7 @@
         <v>73</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>303</v>
@@ -21257,7 +21261,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21280,13 +21284,13 @@
         <v>73</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -21337,7 +21341,7 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
@@ -21355,7 +21359,7 @@
         <v>73</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>303</v>
@@ -21363,7 +21367,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21386,13 +21390,13 @@
         <v>73</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21443,7 +21447,7 @@
         <v>73</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -21461,7 +21465,7 @@
         <v>73</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>303</v>
@@ -21469,7 +21473,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21575,7 +21579,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21683,7 +21687,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21706,19 +21710,19 @@
         <v>83</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>73</v>
@@ -21767,7 +21771,7 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
@@ -21793,7 +21797,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21819,14 +21823,14 @@
         <v>102</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>73</v>
@@ -21854,10 +21858,10 @@
         <v>164</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>73</v>
@@ -21875,7 +21879,7 @@
         <v>73</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
@@ -21901,7 +21905,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21927,10 +21931,10 @@
         <v>84</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -21981,7 +21985,7 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
@@ -22007,7 +22011,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22033,10 +22037,10 @@
         <v>305</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -22087,7 +22091,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -22113,7 +22117,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22136,13 +22140,13 @@
         <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -22193,7 +22197,7 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
@@ -22219,7 +22223,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22242,13 +22246,13 @@
         <v>73</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -22299,7 +22303,7 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
@@ -22325,7 +22329,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22351,10 +22355,10 @@
         <v>84</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -22405,7 +22409,7 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
@@ -22431,7 +22435,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22454,13 +22458,13 @@
         <v>73</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -22511,7 +22515,7 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
@@ -22537,7 +22541,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22560,19 +22564,19 @@
         <v>73</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>73</v>
@@ -22621,7 +22625,7 @@
         <v>73</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>74</v>
@@ -22639,7 +22643,7 @@
         <v>73</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>73</v>
@@ -22647,7 +22651,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22753,7 +22757,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22861,11 +22865,11 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22887,10 +22891,10 @@
         <v>128</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M184" t="s" s="2">
         <v>131</v>
@@ -22945,7 +22949,7 @@
         <v>73</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>74</v>
@@ -22971,7 +22975,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22997,10 +23001,10 @@
         <v>218</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -23051,7 +23055,7 @@
         <v>73</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>74</v>
@@ -23077,7 +23081,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23103,10 +23107,10 @@
         <v>170</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -23136,10 +23140,10 @@
         <v>299</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>73</v>
@@ -23157,7 +23161,7 @@
         <v>73</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>82</v>
@@ -23172,10 +23176,10 @@
         <v>94</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>73</v>
@@ -23183,7 +23187,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23206,13 +23210,13 @@
         <v>73</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -23263,7 +23267,7 @@
         <v>73</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>74</v>
@@ -23289,7 +23293,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23395,7 +23399,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23503,11 +23507,11 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -23529,10 +23533,10 @@
         <v>128</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>131</v>
@@ -23587,7 +23591,7 @@
         <v>73</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>74</v>
@@ -23613,7 +23617,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23636,13 +23640,13 @@
         <v>73</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -23693,7 +23697,7 @@
         <v>73</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>82</v>
@@ -23719,7 +23723,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23745,10 +23749,10 @@
         <v>170</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -23778,10 +23782,10 @@
         <v>299</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>73</v>
@@ -23799,7 +23803,7 @@
         <v>73</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>74</v>
@@ -23817,7 +23821,7 @@
         <v>73</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>73</v>
@@ -23825,7 +23829,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23851,10 +23855,10 @@
         <v>170</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -23884,10 +23888,10 @@
         <v>299</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>73</v>
@@ -23905,7 +23909,7 @@
         <v>73</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>82</v>
@@ -23920,18 +23924,18 @@
         <v>94</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23957,10 +23961,10 @@
         <v>84</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -24011,7 +24015,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -24037,7 +24041,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24063,10 +24067,10 @@
         <v>170</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -24096,10 +24100,10 @@
         <v>299</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>73</v>
@@ -24117,7 +24121,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>82</v>
@@ -24143,7 +24147,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24166,13 +24170,13 @@
         <v>73</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -24223,7 +24227,7 @@
         <v>73</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>74</v>
@@ -24249,7 +24253,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24275,10 +24279,10 @@
         <v>84</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -24329,7 +24333,7 @@
         <v>73</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>74</v>
@@ -24355,7 +24359,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24378,13 +24382,13 @@
         <v>73</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -24435,7 +24439,7 @@
         <v>73</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>74</v>
@@ -24461,7 +24465,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24484,13 +24488,13 @@
         <v>73</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -24541,7 +24545,7 @@
         <v>73</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
@@ -24567,7 +24571,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -24593,10 +24597,10 @@
         <v>84</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -24647,7 +24651,7 @@
         <v>73</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -24673,7 +24677,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -24699,10 +24703,10 @@
         <v>170</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -24732,10 +24736,10 @@
         <v>299</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Z201" t="s" s="2">
         <v>73</v>
@@ -24753,7 +24757,7 @@
         <v>73</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>74</v>
@@ -24779,7 +24783,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24805,10 +24809,10 @@
         <v>170</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -24838,10 +24842,10 @@
         <v>299</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>73</v>
@@ -24859,7 +24863,7 @@
         <v>73</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -24885,7 +24889,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24908,13 +24912,13 @@
         <v>73</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24965,7 +24969,7 @@
         <v>73</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24991,7 +24995,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25017,10 +25021,10 @@
         <v>84</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -25071,7 +25075,7 @@
         <v>73</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>74</v>
@@ -25097,7 +25101,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25123,10 +25127,10 @@
         <v>170</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -25156,10 +25160,10 @@
         <v>299</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>73</v>
@@ -25177,7 +25181,7 @@
         <v>73</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>74</v>
@@ -25203,7 +25207,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25226,13 +25230,13 @@
         <v>73</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -25283,7 +25287,7 @@
         <v>73</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>74</v>
@@ -25309,7 +25313,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25335,10 +25339,10 @@
         <v>84</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -25389,7 +25393,7 @@
         <v>73</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>74</v>
@@ -25415,7 +25419,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -25441,10 +25445,10 @@
         <v>84</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -25495,7 +25499,7 @@
         <v>73</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>74</v>
@@ -25521,7 +25525,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -25544,13 +25548,13 @@
         <v>73</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -25601,7 +25605,7 @@
         <v>73</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>74</v>
@@ -25627,7 +25631,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -25650,13 +25654,13 @@
         <v>73</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -25707,7 +25711,7 @@
         <v>73</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>74</v>
@@ -25733,7 +25737,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -25759,10 +25763,10 @@
         <v>73</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
@@ -25813,7 +25817,7 @@
         <v>73</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>74</v>
@@ -25831,7 +25835,7 @@
         <v>73</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AL211" t="s" s="2">
         <v>303</v>
@@ -25839,7 +25843,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -25862,13 +25866,13 @@
         <v>73</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -25919,7 +25923,7 @@
         <v>73</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>74</v>
@@ -25945,7 +25949,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -25968,13 +25972,13 @@
         <v>73</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -26025,7 +26029,7 @@
         <v>73</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>74</v>
@@ -26051,7 +26055,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26074,19 +26078,19 @@
         <v>73</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>73</v>
@@ -26135,7 +26139,7 @@
         <v>73</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>74</v>
@@ -26153,7 +26157,7 @@
         <v>73</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AL214" t="s" s="2">
         <v>73</v>
@@ -26161,7 +26165,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26267,7 +26271,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -26375,11 +26379,11 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -26401,10 +26405,10 @@
         <v>128</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>131</v>
@@ -26459,7 +26463,7 @@
         <v>73</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>74</v>
@@ -26485,7 +26489,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -26511,10 +26515,10 @@
         <v>182</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
@@ -26544,10 +26548,10 @@
         <v>106</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>73</v>
@@ -26565,7 +26569,7 @@
         <v>73</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>82</v>
@@ -26583,15 +26587,15 @@
         <v>73</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -26614,13 +26618,13 @@
         <v>73</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -26671,7 +26675,7 @@
         <v>73</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>82</v>
@@ -26686,18 +26690,18 @@
         <v>94</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -26720,13 +26724,13 @@
         <v>73</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
@@ -26777,7 +26781,7 @@
         <v>73</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>82</v>
@@ -26795,15 +26799,15 @@
         <v>73</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -26826,13 +26830,13 @@
         <v>73</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -26883,7 +26887,7 @@
         <v>73</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>74</v>
@@ -26901,7 +26905,7 @@
         <v>73</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AL221" t="s" s="2">
         <v>303</v>
@@ -26909,7 +26913,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27015,7 +27019,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -27123,11 +27127,11 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -27149,10 +27153,10 @@
         <v>128</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>131</v>
@@ -27207,7 +27211,7 @@
         <v>73</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>74</v>
@@ -27233,7 +27237,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -27256,13 +27260,13 @@
         <v>73</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -27313,7 +27317,7 @@
         <v>73</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>82</v>
@@ -27331,7 +27335,7 @@
         <v>73</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>303</v>
@@ -27339,7 +27343,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -27362,13 +27366,13 @@
         <v>73</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -27419,7 +27423,7 @@
         <v>73</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>74</v>
@@ -27437,7 +27441,7 @@
         <v>73</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>303</v>
@@ -27445,7 +27449,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -27551,7 +27555,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -27659,11 +27663,11 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -27685,10 +27689,10 @@
         <v>128</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M229" t="s" s="2">
         <v>131</v>
@@ -27743,7 +27747,7 @@
         <v>73</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>74</v>
@@ -27769,7 +27773,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -27792,13 +27796,13 @@
         <v>73</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -27849,7 +27853,7 @@
         <v>73</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>82</v>
@@ -27867,7 +27871,7 @@
         <v>73</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>303</v>
@@ -27875,7 +27879,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -27898,13 +27902,13 @@
         <v>73</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -27955,7 +27959,7 @@
         <v>73</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>74</v>
@@ -27973,7 +27977,7 @@
         <v>73</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>303</v>
@@ -27981,7 +27985,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -28087,7 +28091,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -28195,11 +28199,11 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -28221,10 +28225,10 @@
         <v>128</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>131</v>
@@ -28279,7 +28283,7 @@
         <v>73</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>74</v>
@@ -28305,7 +28309,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -28328,13 +28332,13 @@
         <v>73</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -28385,7 +28389,7 @@
         <v>73</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>82</v>
@@ -28403,7 +28407,7 @@
         <v>73</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>303</v>
@@ -28411,7 +28415,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -28434,13 +28438,13 @@
         <v>73</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -28491,7 +28495,7 @@
         <v>73</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>74</v>
@@ -28509,7 +28513,7 @@
         <v>73</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AL236" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-contract.xlsx
+++ b/StructureDefinition-openimis-contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
